--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H2">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I2">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J2">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.945525</v>
+        <v>17.4294175</v>
       </c>
       <c r="N2">
-        <v>35.89105</v>
+        <v>34.858835</v>
       </c>
       <c r="O2">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="P2">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
       <c r="Q2">
-        <v>572.4626153832625</v>
+        <v>484.6037507011113</v>
       </c>
       <c r="R2">
-        <v>2289.85046153305</v>
+        <v>1938.415002804445</v>
       </c>
       <c r="S2">
-        <v>0.001515424224772229</v>
+        <v>0.004202458667869603</v>
       </c>
       <c r="T2">
-        <v>0.0007962448588348377</v>
+        <v>0.002348282152548267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H3">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I3">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J3">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>11.744931</v>
       </c>
       <c r="O3">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="P3">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
       <c r="Q3">
-        <v>124.8878465570285</v>
+        <v>108.8511729154795</v>
       </c>
       <c r="R3">
-        <v>749.327079342171</v>
+        <v>653.1070374928771</v>
       </c>
       <c r="S3">
-        <v>0.0003306033668686822</v>
+        <v>0.0009439517429747804</v>
       </c>
       <c r="T3">
-        <v>0.0002605619207607443</v>
+        <v>0.0007912029145612834</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H4">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I4">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J4">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.595080333333333</v>
+        <v>5.397313</v>
       </c>
       <c r="N4">
-        <v>22.785241</v>
+        <v>16.191939</v>
       </c>
       <c r="O4">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="P4">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
       <c r="Q4">
-        <v>242.2832183324801</v>
+        <v>150.0657221337355</v>
       </c>
       <c r="R4">
-        <v>1453.699309994881</v>
+        <v>900.3943328024131</v>
       </c>
       <c r="S4">
-        <v>0.0006413726389294528</v>
+        <v>0.001301362182646396</v>
       </c>
       <c r="T4">
-        <v>0.0005054917870489371</v>
+        <v>0.001090777743113051</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H5">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I5">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J5">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.90657</v>
+        <v>5.69137</v>
       </c>
       <c r="N5">
-        <v>15.81314</v>
+        <v>11.38274</v>
       </c>
       <c r="O5">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="P5">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
       <c r="Q5">
-        <v>252.219745084685</v>
+        <v>158.241619298395</v>
       </c>
       <c r="R5">
-        <v>1008.87898033874</v>
+        <v>632.9664771935801</v>
       </c>
       <c r="S5">
-        <v>0.0006676766331916935</v>
+        <v>0.001372263140093639</v>
       </c>
       <c r="T5">
-        <v>0.0003508153544417209</v>
+        <v>0.0007668037439890709</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H6">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I6">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J6">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.81295533333333</v>
+        <v>1.988496</v>
       </c>
       <c r="N6">
-        <v>32.438866</v>
+        <v>5.965488000000001</v>
       </c>
       <c r="O6">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="P6">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
       <c r="Q6">
-        <v>344.9334967989177</v>
+        <v>55.28771227461601</v>
       </c>
       <c r="R6">
-        <v>2069.600980793506</v>
+        <v>331.7262736476961</v>
       </c>
       <c r="S6">
-        <v>0.0009131086693486767</v>
+        <v>0.0004794521819919705</v>
       </c>
       <c r="T6">
-        <v>0.0007196579726403162</v>
+        <v>0.0004018679626453626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H7">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I7">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J7">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.835736333333335</v>
+        <v>4.057513666666667</v>
       </c>
       <c r="N7">
-        <v>26.507209</v>
+        <v>12.172541</v>
       </c>
       <c r="O7">
-        <v>0.1549834332102386</v>
+        <v>0.1054472433062699</v>
       </c>
       <c r="P7">
-        <v>0.1825811352255401</v>
+        <v>0.1318566499842704</v>
       </c>
       <c r="Q7">
-        <v>281.8601701659282</v>
+        <v>112.8142315362912</v>
       </c>
       <c r="R7">
-        <v>1691.161020995569</v>
+        <v>676.885389217747</v>
       </c>
       <c r="S7">
-        <v>0.0007461408280467408</v>
+        <v>0.0009783191824100095</v>
       </c>
       <c r="T7">
-        <v>0.0005880638456749117</v>
+        <v>0.0008200090674706152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>13.537847</v>
       </c>
       <c r="I8">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J8">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.945525</v>
+        <v>17.4294175</v>
       </c>
       <c r="N8">
-        <v>35.89105</v>
+        <v>34.858835</v>
       </c>
       <c r="O8">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="P8">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
       <c r="Q8">
-        <v>80.98125726155833</v>
+        <v>78.65226247137416</v>
       </c>
       <c r="R8">
-        <v>485.88754356935</v>
+        <v>471.913574828245</v>
       </c>
       <c r="S8">
-        <v>0.0002143737524668158</v>
+        <v>0.000682068353148682</v>
       </c>
       <c r="T8">
-        <v>0.0001689566480598755</v>
+        <v>0.000571697094642337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>13.537847</v>
       </c>
       <c r="I9">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J9">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>11.744931</v>
       </c>
       <c r="O9">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="P9">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
       <c r="Q9">
         <v>17.66678654483967</v>
@@ -1013,10 +1013,10 @@
         <v>159.001078903557</v>
       </c>
       <c r="S9">
-        <v>4.676755404543902E-05</v>
+        <v>0.0001532054593909962</v>
       </c>
       <c r="T9">
-        <v>5.528910894093436E-05</v>
+        <v>0.0001926209791427258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>13.537847</v>
       </c>
       <c r="I10">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J10">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.595080333333333</v>
+        <v>5.397313</v>
       </c>
       <c r="N10">
-        <v>22.785241</v>
+        <v>16.191939</v>
       </c>
       <c r="O10">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="P10">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
       <c r="Q10">
-        <v>34.27367850179188</v>
+        <v>24.35599920170366</v>
       </c>
       <c r="R10">
-        <v>308.463106516127</v>
+        <v>219.203992815333</v>
       </c>
       <c r="S10">
-        <v>9.072935293581995E-05</v>
+        <v>0.0002112139656610999</v>
       </c>
       <c r="T10">
-        <v>0.0001072612237478827</v>
+        <v>0.0002655534668019155</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>13.537847</v>
       </c>
       <c r="I11">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J11">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.90657</v>
+        <v>5.69137</v>
       </c>
       <c r="N11">
-        <v>15.81314</v>
+        <v>11.38274</v>
       </c>
       <c r="O11">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="P11">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
       <c r="Q11">
-        <v>35.67931165159666</v>
+        <v>25.68296542679666</v>
       </c>
       <c r="R11">
-        <v>214.07586990958</v>
+        <v>154.09779256078</v>
       </c>
       <c r="S11">
-        <v>9.445034793028077E-05</v>
+        <v>0.0002227213481494614</v>
       </c>
       <c r="T11">
-        <v>7.444014955543347E-05</v>
+        <v>0.0001866809199753553</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>13.537847</v>
       </c>
       <c r="I12">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J12">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.81295533333333</v>
+        <v>1.988496</v>
       </c>
       <c r="N12">
-        <v>32.438866</v>
+        <v>5.965488000000001</v>
       </c>
       <c r="O12">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="P12">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
       <c r="Q12">
-        <v>48.79471164016689</v>
+        <v>8.973318202704</v>
       </c>
       <c r="R12">
-        <v>439.1524047615021</v>
+        <v>80.75986382433601</v>
       </c>
       <c r="S12">
-        <v>0.0001291694620281511</v>
+        <v>7.781615145559178E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001527055370690873</v>
+        <v>9.783609112937152E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>13.537847</v>
       </c>
       <c r="I13">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J13">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.835736333333335</v>
+        <v>4.057513666666667</v>
       </c>
       <c r="N13">
-        <v>26.507209</v>
+        <v>12.172541</v>
       </c>
       <c r="O13">
-        <v>0.1549834332102386</v>
+        <v>0.1054472433062699</v>
       </c>
       <c r="P13">
-        <v>0.1825811352255401</v>
+        <v>0.1318566499842704</v>
       </c>
       <c r="Q13">
-        <v>39.87228220433589</v>
+        <v>18.30999973991411</v>
       </c>
       <c r="R13">
-        <v>358.850539839023</v>
+        <v>164.789997659227</v>
       </c>
       <c r="S13">
-        <v>0.0001055499882886709</v>
+        <v>0.0001587833709589895</v>
       </c>
       <c r="T13">
-        <v>0.0001247823393871889</v>
+        <v>0.0001996339328068402</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H14">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I14">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J14">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.945525</v>
+        <v>17.4294175</v>
       </c>
       <c r="N14">
-        <v>35.89105</v>
+        <v>34.858835</v>
       </c>
       <c r="O14">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="P14">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
       <c r="Q14">
-        <v>48339.54290716146</v>
+        <v>15638.08652791242</v>
       </c>
       <c r="R14">
-        <v>290037.2574429687</v>
+        <v>93828.5191674745</v>
       </c>
       <c r="S14">
-        <v>0.1279645384124954</v>
+        <v>0.1356126777455619</v>
       </c>
       <c r="T14">
-        <v>0.1008540422132657</v>
+        <v>0.1136680414886583</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H15">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I15">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J15">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>11.744931</v>
       </c>
       <c r="O15">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="P15">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
       <c r="Q15">
-        <v>10545.70421718229</v>
+        <v>3512.610165014808</v>
       </c>
       <c r="R15">
-        <v>94911.33795464064</v>
+        <v>31613.49148513327</v>
       </c>
       <c r="S15">
-        <v>0.02791661011313606</v>
+        <v>0.03046117371864474</v>
       </c>
       <c r="T15">
-        <v>0.03300331884594886</v>
+        <v>0.03829798971163062</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H16">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I16">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J16">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.595080333333333</v>
+        <v>5.397313</v>
       </c>
       <c r="N16">
-        <v>22.785241</v>
+        <v>16.191939</v>
       </c>
       <c r="O16">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="P16">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
       <c r="Q16">
-        <v>20458.73339768576</v>
+        <v>4842.597161507352</v>
       </c>
       <c r="R16">
-        <v>184128.6005791719</v>
+        <v>43583.37445356616</v>
       </c>
       <c r="S16">
-        <v>0.05415840155475091</v>
+        <v>0.04199475218038308</v>
       </c>
       <c r="T16">
-        <v>0.06402664891814064</v>
+        <v>0.0527988383442483</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H17">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I17">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J17">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.90657</v>
+        <v>5.69137</v>
       </c>
       <c r="N17">
-        <v>15.81314</v>
+        <v>11.38274</v>
       </c>
       <c r="O17">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="P17">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
       <c r="Q17">
-        <v>21297.78759682292</v>
+        <v>5106.432072234479</v>
       </c>
       <c r="R17">
-        <v>127786.7255809375</v>
+        <v>30638.59243340687</v>
       </c>
       <c r="S17">
-        <v>0.05637954757389843</v>
+        <v>0.04428271488365911</v>
       </c>
       <c r="T17">
-        <v>0.04443500786642576</v>
+        <v>0.0371169536381411</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H18">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I18">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J18">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.81295533333333</v>
+        <v>1.988496</v>
       </c>
       <c r="N18">
-        <v>32.438866</v>
+        <v>5.965488000000001</v>
       </c>
       <c r="O18">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="P18">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
       <c r="Q18">
-        <v>29126.66630198264</v>
+        <v>1784.125746509184</v>
       </c>
       <c r="R18">
-        <v>262139.9967178438</v>
+        <v>16057.13171858266</v>
       </c>
       <c r="S18">
-        <v>0.07710417154722028</v>
+        <v>0.01547184621897656</v>
       </c>
       <c r="T18">
-        <v>0.09115338673330731</v>
+        <v>0.01945232356400015</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H19">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I19">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J19">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.835736333333335</v>
+        <v>4.057513666666667</v>
       </c>
       <c r="N19">
-        <v>26.507209</v>
+        <v>12.172541</v>
       </c>
       <c r="O19">
-        <v>0.1549834332102386</v>
+        <v>0.1054472433062699</v>
       </c>
       <c r="P19">
-        <v>0.1825811352255401</v>
+        <v>0.1318566499842704</v>
       </c>
       <c r="Q19">
-        <v>23800.66649493577</v>
+        <v>3640.497441037288</v>
       </c>
       <c r="R19">
-        <v>214205.9984544219</v>
+        <v>32764.47696933559</v>
       </c>
       <c r="S19">
-        <v>0.06300517379288233</v>
+        <v>0.03157020556343205</v>
       </c>
       <c r="T19">
-        <v>0.07448539887915946</v>
+        <v>0.03969234472151448</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H20">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I20">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J20">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.945525</v>
+        <v>17.4294175</v>
       </c>
       <c r="N20">
-        <v>35.89105</v>
+        <v>34.858835</v>
       </c>
       <c r="O20">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="P20">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
       <c r="Q20">
-        <v>677.391652346175</v>
+        <v>365.5086977883687</v>
       </c>
       <c r="R20">
-        <v>2709.5666093847</v>
+        <v>1462.034791153475</v>
       </c>
       <c r="S20">
-        <v>0.001793192589417596</v>
+        <v>0.003169672527255863</v>
       </c>
       <c r="T20">
-        <v>0.0009421918673888786</v>
+        <v>0.001771173975388747</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H21">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I21">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J21">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>11.744931</v>
       </c>
       <c r="O21">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="P21">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
       <c r="Q21">
-        <v>147.779055721539</v>
+        <v>82.10017030927251</v>
       </c>
       <c r="R21">
-        <v>886.6743343292341</v>
+        <v>492.6010218556351</v>
       </c>
       <c r="S21">
-        <v>0.0003912010233270038</v>
+        <v>0.0007119684316322435</v>
       </c>
       <c r="T21">
-        <v>0.0003083213913007151</v>
+        <v>0.0005967587881217642</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H22">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I22">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J22">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.595080333333333</v>
+        <v>5.397313</v>
       </c>
       <c r="N22">
-        <v>22.785241</v>
+        <v>16.191939</v>
       </c>
       <c r="O22">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="P22">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
       <c r="Q22">
-        <v>286.692310015929</v>
+        <v>113.1859309805525</v>
       </c>
       <c r="R22">
-        <v>1720.153860095574</v>
+        <v>679.1155858833151</v>
       </c>
       <c r="S22">
-        <v>0.0007589324786967588</v>
+        <v>0.0009815425407705637</v>
       </c>
       <c r="T22">
-        <v>0.0005981454643064397</v>
+        <v>0.0008227108269074998</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H23">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I23">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J23">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.90657</v>
+        <v>5.69137</v>
       </c>
       <c r="N23">
-        <v>15.81314</v>
+        <v>11.38274</v>
       </c>
       <c r="O23">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="P23">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
       <c r="Q23">
-        <v>298.45014379299</v>
+        <v>119.352539310725</v>
       </c>
       <c r="R23">
-        <v>1193.80057517196</v>
+        <v>477.4101572429</v>
       </c>
       <c r="S23">
-        <v>0.0007900578406990868</v>
+        <v>0.001035019049342768</v>
       </c>
       <c r="T23">
-        <v>0.0004151177495749434</v>
+        <v>0.0005783558990602098</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H24">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I24">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J24">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.81295533333333</v>
+        <v>1.988496</v>
       </c>
       <c r="N24">
-        <v>32.438866</v>
+        <v>5.965488000000001</v>
       </c>
       <c r="O24">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="P24">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
       <c r="Q24">
-        <v>408.157781953554</v>
+        <v>41.70033700308001</v>
       </c>
       <c r="R24">
-        <v>2448.946691721324</v>
+        <v>250.2020220184801</v>
       </c>
       <c r="S24">
-        <v>0.001080476128362742</v>
+        <v>0.0003616231662221744</v>
       </c>
       <c r="T24">
-        <v>0.0008515670545307983</v>
+        <v>0.0003031058581301947</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H25">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I25">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J25">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.835736333333335</v>
+        <v>4.057513666666667</v>
       </c>
       <c r="N25">
-        <v>26.507209</v>
+        <v>12.172541</v>
       </c>
       <c r="O25">
-        <v>0.1549834332102386</v>
+        <v>0.1054472433062699</v>
       </c>
       <c r="P25">
-        <v>0.1825811352255401</v>
+        <v>0.1318566499842704</v>
       </c>
       <c r="Q25">
-        <v>333.523484798121</v>
+        <v>85.08927716958084</v>
       </c>
       <c r="R25">
-        <v>2001.140908788726</v>
+        <v>510.5356630174851</v>
       </c>
       <c r="S25">
-        <v>0.0008829040618750989</v>
+        <v>0.0007378898117621279</v>
       </c>
       <c r="T25">
-        <v>0.0006958524965688463</v>
+        <v>0.0006184856101344901</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H26">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I26">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J26">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.945525</v>
+        <v>17.4294175</v>
       </c>
       <c r="N26">
-        <v>35.89105</v>
+        <v>34.858835</v>
       </c>
       <c r="O26">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="P26">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
       <c r="Q26">
-        <v>569.7712322804666</v>
+        <v>4742.969332181951</v>
       </c>
       <c r="R26">
-        <v>3418.6273936828</v>
+        <v>28457.81599309171</v>
       </c>
       <c r="S26">
-        <v>0.001508299589830978</v>
+        <v>0.04113078479609473</v>
       </c>
       <c r="T26">
-        <v>0.001188752074521693</v>
+        <v>0.03447506406027423</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H27">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I27">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J27">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>11.744931</v>
       </c>
       <c r="O27">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="P27">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
       <c r="Q27">
-        <v>124.3006972289573</v>
+        <v>1065.360666654391</v>
       </c>
       <c r="R27">
-        <v>1118.706275060616</v>
+        <v>9588.245999889516</v>
       </c>
       <c r="S27">
-        <v>0.0003290490639475699</v>
+        <v>0.009238752612854707</v>
       </c>
       <c r="T27">
-        <v>0.0003890053673928221</v>
+        <v>0.01161562767684292</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H28">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I28">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J28">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.595080333333333</v>
+        <v>5.397313</v>
       </c>
       <c r="N28">
-        <v>22.785241</v>
+        <v>16.191939</v>
       </c>
       <c r="O28">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="P28">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
       <c r="Q28">
-        <v>241.1441448936418</v>
+        <v>1468.740423206167</v>
       </c>
       <c r="R28">
-        <v>2170.297304042776</v>
+        <v>13218.6638088555</v>
       </c>
       <c r="S28">
-        <v>0.0006383572813556581</v>
+        <v>0.01273684100344515</v>
       </c>
       <c r="T28">
-        <v>0.0007546728921897449</v>
+        <v>0.01601367728683568</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H29">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I29">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J29">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.90657</v>
+        <v>5.69137</v>
       </c>
       <c r="N29">
-        <v>15.81314</v>
+        <v>11.38274</v>
       </c>
       <c r="O29">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="P29">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
       <c r="Q29">
-        <v>251.0339559311733</v>
+        <v>1548.760500349504</v>
       </c>
       <c r="R29">
-        <v>1506.20373558704</v>
+        <v>9292.56300209702</v>
       </c>
       <c r="S29">
-        <v>0.0006645376096809605</v>
+        <v>0.01343077097470123</v>
       </c>
       <c r="T29">
-        <v>0.0005237490399334088</v>
+        <v>0.01125742414172608</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H30">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I30">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J30">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.81295533333333</v>
+        <v>1.988496</v>
       </c>
       <c r="N30">
-        <v>32.438866</v>
+        <v>5.965488000000001</v>
       </c>
       <c r="O30">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="P30">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
       <c r="Q30">
-        <v>343.3118220206418</v>
+        <v>541.1182298643362</v>
       </c>
       <c r="R30">
-        <v>3089.806398185776</v>
+        <v>4870.064068779025</v>
       </c>
       <c r="S30">
-        <v>0.000908815768506486</v>
+        <v>0.004692549308885119</v>
       </c>
       <c r="T30">
-        <v>0.001074411845087598</v>
+        <v>0.005899812226966197</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H31">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I31">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J31">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.835736333333335</v>
+        <v>4.057513666666667</v>
       </c>
       <c r="N31">
-        <v>26.507209</v>
+        <v>12.172541</v>
       </c>
       <c r="O31">
-        <v>0.1549834332102386</v>
+        <v>0.1054472433062699</v>
       </c>
       <c r="P31">
-        <v>0.1825811352255401</v>
+        <v>0.1318566499842704</v>
       </c>
       <c r="Q31">
-        <v>280.5350291367138</v>
+        <v>1104.148367890616</v>
       </c>
       <c r="R31">
-        <v>2524.815262230424</v>
+        <v>9937.335311015544</v>
       </c>
       <c r="S31">
-        <v>0.0007426329119611347</v>
+        <v>0.009575117552315212</v>
       </c>
       <c r="T31">
-        <v>0.000877948672121047</v>
+        <v>0.01203852999537462</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H32">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I32">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J32">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>17.945525</v>
+        <v>17.4294175</v>
       </c>
       <c r="N32">
-        <v>35.89105</v>
+        <v>34.858835</v>
       </c>
       <c r="O32">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="P32">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
       <c r="Q32">
-        <v>68667.99499355185</v>
+        <v>30922.75395685093</v>
       </c>
       <c r="R32">
-        <v>412007.9699613111</v>
+        <v>185536.5237411055</v>
       </c>
       <c r="S32">
-        <v>0.181778059009317</v>
+        <v>0.26816052333965</v>
       </c>
       <c r="T32">
-        <v>0.1432666601560686</v>
+        <v>0.2247671972806333</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H33">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I33">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J33">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>11.744931</v>
       </c>
       <c r="O33">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="P33">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
       <c r="Q33">
-        <v>14980.53810272314</v>
+        <v>6945.835712394311</v>
       </c>
       <c r="R33">
-        <v>134824.8429245083</v>
+        <v>62512.52141154881</v>
       </c>
       <c r="S33">
-        <v>0.03965651158860601</v>
+        <v>0.0602339281380283</v>
       </c>
       <c r="T33">
-        <v>0.04688235752739121</v>
+        <v>0.07573044891271971</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H34">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I34">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J34">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.595080333333333</v>
+        <v>5.397313</v>
       </c>
       <c r="N34">
-        <v>22.785241</v>
+        <v>16.191939</v>
       </c>
       <c r="O34">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="P34">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
       <c r="Q34">
-        <v>29062.33940243919</v>
+        <v>9575.752140145416</v>
       </c>
       <c r="R34">
-        <v>261561.0546219527</v>
+        <v>86181.76926130874</v>
       </c>
       <c r="S34">
-        <v>0.07693388524510537</v>
+        <v>0.08304042741003229</v>
       </c>
       <c r="T34">
-        <v>0.09095207242254322</v>
+        <v>0.1044044285349462</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H35">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I35">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J35">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.90657</v>
+        <v>5.69137</v>
       </c>
       <c r="N35">
-        <v>15.81314</v>
+        <v>11.38274</v>
       </c>
       <c r="O35">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="P35">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
       <c r="Q35">
-        <v>30254.24495389058</v>
+        <v>10097.45932056551</v>
       </c>
       <c r="R35">
-        <v>181525.4697233435</v>
+        <v>60584.75592339307</v>
       </c>
       <c r="S35">
-        <v>0.08008910009717161</v>
+        <v>0.08756464510185631</v>
       </c>
       <c r="T35">
-        <v>0.06312146773026518</v>
+        <v>0.07339506805589331</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H36">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I36">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J36">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.81295533333333</v>
+        <v>1.988496</v>
       </c>
       <c r="N36">
-        <v>32.438866</v>
+        <v>5.965488000000001</v>
       </c>
       <c r="O36">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="P36">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
       <c r="Q36">
-        <v>41375.43831650694</v>
+        <v>3527.930440141344</v>
       </c>
       <c r="R36">
-        <v>372378.9448485625</v>
+        <v>31751.3739612721</v>
       </c>
       <c r="S36">
-        <v>0.1095291462717182</v>
+        <v>0.03059403035235117</v>
       </c>
       <c r="T36">
-        <v>0.1294865430537766</v>
+        <v>0.03846502667605646</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H37">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I37">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J37">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.835736333333335</v>
+        <v>4.057513666666667</v>
       </c>
       <c r="N37">
-        <v>26.507209</v>
+        <v>12.172541</v>
       </c>
       <c r="O37">
-        <v>0.1549834332102386</v>
+        <v>0.1054472433062699</v>
       </c>
       <c r="P37">
-        <v>0.1825811352255401</v>
+        <v>0.1318566499842704</v>
       </c>
       <c r="Q37">
-        <v>33809.67111865926</v>
+        <v>7198.72002554838</v>
       </c>
       <c r="R37">
-        <v>304287.0400679333</v>
+        <v>64788.48022993542</v>
       </c>
       <c r="S37">
-        <v>0.08950103162718467</v>
+        <v>0.0624269278253915</v>
       </c>
       <c r="T37">
-        <v>0.1058090889926286</v>
+        <v>0.07848764665696939</v>
       </c>
     </row>
   </sheetData>
